--- a/src/resources/excel-model/单位问卷—事业单位—打印版.xlsx
+++ b/src/resources/excel-model/单位问卷—事业单位—打印版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="单位情况" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="增量-编制内" sheetId="22" r:id="rId10"/>
     <sheet name="增量-编制外" sheetId="29" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2407,16 +2407,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流入地</t>
-    </r>
+    <t>流入地（省/市)</t>
   </si>
   <si>
     <t>人才层次</t>
@@ -2755,10 +2746,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2880,8 +2871,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2895,76 +2887,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2977,17 +2900,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3003,9 +2917,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3016,9 +2946,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3054,13 +3045,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3078,25 +3159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3114,13 +3177,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3132,73 +3201,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3210,31 +3219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3337,11 +3328,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3361,17 +3358,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3380,7 +3382,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3400,37 +3417,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3442,10 +3433,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3454,133 +3445,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4074,22 +4065,22 @@
   <sheetPr/>
   <dimension ref="A3:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="10.6333333333333" style="47" customWidth="1"/>
-    <col min="5" max="5" width="10.6333333333333" style="48" customWidth="1"/>
-    <col min="6" max="10" width="10.6333333333333" style="47" customWidth="1"/>
-    <col min="11" max="11" width="37.725" style="47" customWidth="1"/>
-    <col min="12" max="12" width="31.3666666666667" style="47" customWidth="1"/>
+    <col min="1" max="4" width="10.6296296296296" style="47" customWidth="1"/>
+    <col min="5" max="5" width="10.6296296296296" style="48" customWidth="1"/>
+    <col min="6" max="10" width="10.6296296296296" style="47" customWidth="1"/>
+    <col min="11" max="11" width="37.7222222222222" style="47" customWidth="1"/>
+    <col min="12" max="12" width="31.3703703703704" style="47" customWidth="1"/>
     <col min="13" max="16373" width="8" style="47" customWidth="1"/>
     <col min="16374" max="16379" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18.75" spans="1:10">
+    <row r="3" ht="17.4" spans="1:10">
       <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
@@ -4103,7 +4094,7 @@
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
     </row>
-    <row r="4" ht="18.75" spans="1:10">
+    <row r="4" ht="17.4" spans="1:10">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -4115,7 +4106,7 @@
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
     </row>
-    <row r="5" ht="18.75" spans="1:10">
+    <row r="5" ht="17.4" spans="1:10">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -4127,7 +4118,7 @@
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
     </row>
-    <row r="6" ht="18.75" spans="1:10">
+    <row r="6" ht="17.4" spans="1:10">
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -4225,7 +4216,7 @@
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
     </row>
-    <row r="14" s="47" customFormat="1" ht="15.75" spans="1:12">
+    <row r="14" s="47" customFormat="1" ht="15.6" spans="1:12">
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
@@ -4243,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="47" customFormat="1" ht="15.75" spans="1:12">
+    <row r="15" s="47" customFormat="1" ht="15.6" spans="1:12">
       <c r="A15" s="50"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
@@ -4279,7 +4270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" s="47" customFormat="1" ht="15.75" spans="1:12">
+    <row r="17" s="47" customFormat="1" ht="15.6" spans="1:12">
       <c r="A17" s="50"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
@@ -4297,7 +4288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" s="47" customFormat="1" ht="15.75" spans="1:12">
+    <row r="18" s="47" customFormat="1" ht="15.6" spans="1:12">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
@@ -4315,7 +4306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" s="47" customFormat="1" ht="15.75" spans="1:12">
+    <row r="19" s="47" customFormat="1" ht="15.6" spans="1:12">
       <c r="A19" s="50"/>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
@@ -4333,7 +4324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" s="47" customFormat="1" ht="15.75" spans="1:12">
+    <row r="20" s="47" customFormat="1" ht="15.6" spans="1:12">
       <c r="A20" s="50"/>
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
@@ -4351,7 +4342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" s="47" customFormat="1" ht="15.75" spans="1:12">
+    <row r="21" s="47" customFormat="1" ht="15.6" spans="1:12">
       <c r="A21" s="50"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -4369,7 +4360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" s="47" customFormat="1" ht="15.75" spans="1:12">
+    <row r="22" s="47" customFormat="1" ht="15.6" spans="1:12">
       <c r="A22" s="50"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -4387,7 +4378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" s="47" customFormat="1" ht="15.75" spans="1:12">
+    <row r="23" s="47" customFormat="1" ht="15.6" spans="1:12">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
@@ -4716,27 +4707,27 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.81666666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="1.81481481481481" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="2.18333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.63333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.8166666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.63333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.6333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.1833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.5416666666667" style="2" customWidth="1"/>
-    <col min="10" max="15" width="3.63333333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.18333333333333" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.63333333333333" style="2" customWidth="1"/>
-    <col min="19" max="20" width="10.6333333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.63333333333333" style="2" customWidth="1"/>
-    <col min="22" max="23" width="10.6333333333333" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12.6333333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="3.63333333333333" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="1.81666666666667" style="2"/>
+    <col min="1" max="1" width="2.18518518518518" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8148148148148" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.62962962962963" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5462962962963" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.8148148148148" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.62962962962963" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.1851851851852" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.5462962962963" style="2" customWidth="1"/>
+    <col min="10" max="15" width="3.62962962962963" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.18518518518518" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6296296296296" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.62962962962963" style="2" customWidth="1"/>
+    <col min="19" max="20" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.62962962962963" style="2" customWidth="1"/>
+    <col min="22" max="23" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.6296296296296" style="2" customWidth="1"/>
+    <col min="25" max="25" width="3.62962962962963" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="1.81481481481481" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1" spans="1:15">
@@ -4878,27 +4869,27 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.81666666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="1.81481481481481" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="2.18333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.63333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.8166666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.63333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.6333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.1833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.5416666666667" style="2" customWidth="1"/>
-    <col min="10" max="15" width="3.63333333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="2.18333333333333" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.63333333333333" style="2" customWidth="1"/>
-    <col min="19" max="20" width="10.6333333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.63333333333333" style="2" customWidth="1"/>
-    <col min="22" max="23" width="10.6333333333333" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12.6333333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="3.63333333333333" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="1.81666666666667" style="2"/>
+    <col min="1" max="1" width="2.18518518518518" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8148148148148" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.62962962962963" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5462962962963" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.8148148148148" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.62962962962963" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.1851851851852" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.5462962962963" style="2" customWidth="1"/>
+    <col min="10" max="15" width="3.62962962962963" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.18518518518518" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6296296296296" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.62962962962963" style="2" customWidth="1"/>
+    <col min="19" max="20" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.62962962962963" style="2" customWidth="1"/>
+    <col min="22" max="23" width="10.6296296296296" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.6296296296296" style="2" customWidth="1"/>
+    <col min="25" max="25" width="3.62962962962963" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="1.81481481481481" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1" spans="1:15">
@@ -5040,17 +5031,17 @@
       <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.62962962962963" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.26666666666667" style="25" customWidth="1"/>
-    <col min="2" max="5" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="6" max="118" width="2.63333333333333" style="45" customWidth="1"/>
-    <col min="119" max="135" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="136" max="144" width="2.09166666666667" style="25" customWidth="1"/>
-    <col min="145" max="16384" width="2.63333333333333" style="25"/>
+    <col min="1" max="1" width="4.26851851851852" style="25" customWidth="1"/>
+    <col min="2" max="5" width="2.62962962962963" style="25" customWidth="1"/>
+    <col min="6" max="118" width="2.62962962962963" style="45" customWidth="1"/>
+    <col min="119" max="135" width="2.62962962962963" style="25" customWidth="1"/>
+    <col min="136" max="144" width="2.09259259259259" style="25" customWidth="1"/>
+    <col min="145" max="16384" width="2.62962962962963" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:70">
+    <row r="1" ht="17.4" spans="1:70">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -5756,7 +5747,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" ht="63" spans="1:118">
+    <row r="8" ht="67.2" spans="1:118">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -5957,7 +5948,7 @@
       </c>
       <c r="DN8" s="25"/>
     </row>
-    <row r="11" ht="13.5" spans="1:70">
+    <row r="11" spans="1:70">
       <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
@@ -6037,7 +6028,7 @@
       <c r="BQ11" s="5"/>
       <c r="BR11" s="5"/>
     </row>
-    <row r="12" ht="13.5" spans="1:70">
+    <row r="12" spans="1:70">
       <c r="A12" s="19"/>
       <c r="B12" s="18"/>
       <c r="C12" s="38" t="s">
@@ -6413,7 +6404,7 @@
       <c r="BQ14" s="36"/>
       <c r="BR14" s="36"/>
     </row>
-    <row r="15" ht="13.5" spans="1:70">
+    <row r="15" spans="1:70">
       <c r="A15" s="46" t="s">
         <v>68</v>
       </c>
@@ -6625,7 +6616,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" ht="63" spans="1:70">
+    <row r="16" ht="67.2" spans="1:70">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -6938,17 +6929,17 @@
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.62962962962963" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.26666666666667" style="25" customWidth="1"/>
-    <col min="2" max="5" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="6" max="118" width="2.63333333333333" style="45" customWidth="1"/>
-    <col min="119" max="135" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="136" max="144" width="2.09166666666667" style="25" customWidth="1"/>
-    <col min="145" max="16384" width="2.63333333333333" style="25"/>
+    <col min="1" max="1" width="4.26851851851852" style="25" customWidth="1"/>
+    <col min="2" max="5" width="2.62962962962963" style="25" customWidth="1"/>
+    <col min="6" max="118" width="2.62962962962963" style="45" customWidth="1"/>
+    <col min="119" max="135" width="2.62962962962963" style="25" customWidth="1"/>
+    <col min="136" max="144" width="2.09259259259259" style="25" customWidth="1"/>
+    <col min="145" max="16384" width="2.62962962962963" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:70">
+    <row r="1" ht="17.4" spans="1:70">
       <c r="A1" s="3" t="s">
         <v>237</v>
       </c>
@@ -7654,7 +7645,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" ht="63" spans="1:118">
+    <row r="8" ht="67.2" spans="1:118">
       <c r="A8" s="5" t="s">
         <v>238</v>
       </c>
@@ -8311,7 +8302,7 @@
       <c r="BQ14" s="36"/>
       <c r="BR14" s="36"/>
     </row>
-    <row r="15" ht="13.5" spans="1:70">
+    <row r="15" spans="1:70">
       <c r="A15" s="46" t="s">
         <v>68</v>
       </c>
@@ -8523,7 +8514,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" ht="63" spans="1:70">
+    <row r="16" ht="67.2" spans="1:70">
       <c r="A16" s="5" t="s">
         <v>238</v>
       </c>
@@ -8836,18 +8827,18 @@
       <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.0925925925926" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="4" style="25" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="26" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="27" customWidth="1"/>
-    <col min="9" max="125" width="2.63333333333333" style="28" customWidth="1"/>
-    <col min="126" max="16380" width="18.0916666666667" style="28" customWidth="1"/>
-    <col min="16381" max="16384" width="18.0916666666667" style="26" customWidth="1"/>
+    <col min="2" max="2" width="2.62962962962963" style="25" customWidth="1"/>
+    <col min="3" max="6" width="2.62962962962963" style="26" customWidth="1"/>
+    <col min="7" max="8" width="2.62962962962963" style="27" customWidth="1"/>
+    <col min="9" max="125" width="2.62962962962963" style="28" customWidth="1"/>
+    <col min="126" max="16380" width="18.0925925925926" style="28" customWidth="1"/>
+    <col min="16381" max="16384" width="18.0925925925926" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:70">
+    <row r="1" ht="17.4" spans="1:70">
       <c r="A1" s="3" t="s">
         <v>239</v>
       </c>
@@ -10770,18 +10761,18 @@
       <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.0925925925926" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="4" style="25" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="26" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="27" customWidth="1"/>
-    <col min="9" max="125" width="2.63333333333333" style="28" customWidth="1"/>
-    <col min="126" max="16380" width="18.0916666666667" style="28" customWidth="1"/>
-    <col min="16381" max="16384" width="18.0916666666667" style="26" customWidth="1"/>
+    <col min="2" max="2" width="2.62962962962963" style="25" customWidth="1"/>
+    <col min="3" max="6" width="2.62962962962963" style="26" customWidth="1"/>
+    <col min="7" max="8" width="2.62962962962963" style="27" customWidth="1"/>
+    <col min="9" max="125" width="2.62962962962963" style="28" customWidth="1"/>
+    <col min="126" max="16380" width="18.0925925925926" style="28" customWidth="1"/>
+    <col min="16381" max="16384" width="18.0925925925926" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:70">
+    <row r="1" ht="17.4" spans="1:70">
       <c r="A1" s="3" t="s">
         <v>242</v>
       </c>
@@ -12704,18 +12695,18 @@
       <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.0925925925926" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="4" style="25" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="26" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="27" customWidth="1"/>
-    <col min="9" max="125" width="2.63333333333333" style="28" customWidth="1"/>
-    <col min="126" max="16380" width="18.0916666666667" style="28" customWidth="1"/>
-    <col min="16381" max="16384" width="18.0916666666667" style="26" customWidth="1"/>
+    <col min="2" max="2" width="2.62962962962963" style="25" customWidth="1"/>
+    <col min="3" max="6" width="2.62962962962963" style="26" customWidth="1"/>
+    <col min="7" max="8" width="2.62962962962963" style="27" customWidth="1"/>
+    <col min="9" max="125" width="2.62962962962963" style="28" customWidth="1"/>
+    <col min="126" max="16380" width="18.0925925925926" style="28" customWidth="1"/>
+    <col min="16381" max="16384" width="18.0925925925926" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:77">
+    <row r="1" ht="17.4" spans="1:77">
       <c r="A1" s="3" t="s">
         <v>244</v>
       </c>
@@ -14834,18 +14825,18 @@
       <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.0925925925926" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="4" style="25" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="26" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="27" customWidth="1"/>
-    <col min="9" max="125" width="2.63333333333333" style="28" customWidth="1"/>
-    <col min="126" max="16380" width="18.0916666666667" style="28" customWidth="1"/>
-    <col min="16381" max="16384" width="18.0916666666667" style="26" customWidth="1"/>
+    <col min="2" max="2" width="2.62962962962963" style="25" customWidth="1"/>
+    <col min="3" max="6" width="2.62962962962963" style="26" customWidth="1"/>
+    <col min="7" max="8" width="2.62962962962963" style="27" customWidth="1"/>
+    <col min="9" max="125" width="2.62962962962963" style="28" customWidth="1"/>
+    <col min="126" max="16380" width="18.0925925925926" style="28" customWidth="1"/>
+    <col min="16381" max="16384" width="18.0925925925926" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:77">
+    <row r="1" ht="17.4" spans="1:77">
       <c r="A1" s="13" t="s">
         <v>271</v>
       </c>
@@ -16961,26 +16952,26 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="3.81666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.54166666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.2666666666667" style="12" customWidth="1"/>
-    <col min="4" max="4" width="5.26666666666667" customWidth="1"/>
-    <col min="5" max="5" width="4.45" customWidth="1"/>
-    <col min="6" max="6" width="12.3666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.6333333333333" customWidth="1"/>
-    <col min="8" max="8" width="5.45" customWidth="1"/>
-    <col min="9" max="9" width="8.63333333333333" customWidth="1"/>
-    <col min="10" max="21" width="3.63333333333333" customWidth="1"/>
-    <col min="22" max="22" width="6.625" customWidth="1"/>
-    <col min="23" max="26" width="2.63333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.81481481481481" customWidth="1"/>
+    <col min="2" max="2" width="7.53703703703704" customWidth="1"/>
+    <col min="3" max="3" width="19.2685185185185" style="12" customWidth="1"/>
+    <col min="4" max="4" width="5.26851851851852" customWidth="1"/>
+    <col min="5" max="5" width="4.4537037037037" customWidth="1"/>
+    <col min="6" max="6" width="12.3703703703704" customWidth="1"/>
+    <col min="7" max="7" width="11.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="5.4537037037037" customWidth="1"/>
+    <col min="9" max="9" width="8.62962962962963" customWidth="1"/>
+    <col min="10" max="21" width="3.62962962962963" customWidth="1"/>
+    <col min="22" max="22" width="6.62962962962963" customWidth="1"/>
+    <col min="23" max="26" width="2.62962962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:26">
+    <row r="1" ht="20.4" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>273</v>
       </c>
@@ -17063,7 +17054,7 @@
       <c r="H3" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="22" t="s">
         <v>280</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -17229,27 +17220,27 @@
   <sheetPr/>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="3.81666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.54166666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.2666666666667" style="12" customWidth="1"/>
-    <col min="4" max="4" width="5.26666666666667" customWidth="1"/>
-    <col min="5" max="5" width="4.45" customWidth="1"/>
-    <col min="6" max="6" width="12.3666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.6333333333333" customWidth="1"/>
-    <col min="8" max="8" width="5.45" customWidth="1"/>
-    <col min="9" max="9" width="8.63333333333333" customWidth="1"/>
-    <col min="10" max="21" width="3.63333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.81481481481481" customWidth="1"/>
+    <col min="2" max="2" width="7.53703703703704" customWidth="1"/>
+    <col min="3" max="3" width="19.2685185185185" style="12" customWidth="1"/>
+    <col min="4" max="4" width="5.26851851851852" customWidth="1"/>
+    <col min="5" max="5" width="4.4537037037037" customWidth="1"/>
+    <col min="6" max="6" width="12.3703703703704" customWidth="1"/>
+    <col min="7" max="7" width="11.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="5.4537037037037" customWidth="1"/>
+    <col min="9" max="9" width="8.62962962962963" customWidth="1"/>
+    <col min="10" max="21" width="3.62962962962963" customWidth="1"/>
     <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="23" max="26" width="2.63333333333333" customWidth="1"/>
+    <col min="23" max="26" width="2.62962962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:26">
+    <row r="1" ht="17.4" spans="1:26">
       <c r="A1" s="13" t="s">
         <v>297</v>
       </c>
@@ -17332,7 +17323,7 @@
       <c r="H3" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="22" t="s">
         <v>280</v>
       </c>
       <c r="J3" s="5" t="s">
